--- a/latest/853/excel/853_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
+++ b/latest/853/excel/853_09_tyottomat_koulutusasteen_mukaan_vuosimuutoksella.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Koulutusaste</t>
   </si>
   <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2017-10</t>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2017-11</t>
   </si>
   <si>
     <t>Muutos, lkm</t>
@@ -62,61 +62,58 @@
     <t>Yhteensä</t>
   </si>
   <si>
-    <t>-17.4 %</t>
-  </si>
-  <si>
-    <t>-21.1 %</t>
-  </si>
-  <si>
-    <t>-13.3 %</t>
-  </si>
-  <si>
-    <t>-14.4 %</t>
-  </si>
-  <si>
-    <t>-17.8 %</t>
-  </si>
-  <si>
-    <t>-17.5 %</t>
-  </si>
-  <si>
-    <t>-29.8 %</t>
-  </si>
-  <si>
-    <t>-61.5 %</t>
-  </si>
-  <si>
-    <t>-8.5 %</t>
-  </si>
-  <si>
-    <t>-15.8  %</t>
+    <t>-37.5 %</t>
+  </si>
+  <si>
+    <t>-19.5 %</t>
+  </si>
+  <si>
+    <t>-17.1 %</t>
+  </si>
+  <si>
+    <t>-16.5 %</t>
+  </si>
+  <si>
+    <t>-19.1 %</t>
+  </si>
+  <si>
+    <t>-15.4 %</t>
+  </si>
+  <si>
+    <t>-31.8 %</t>
+  </si>
+  <si>
+    <t>-50 %</t>
+  </si>
+  <si>
+    <t>-10.4 %</t>
+  </si>
+  <si>
+    <t>-17.7  %</t>
   </si>
   <si>
     <t>0.2%</t>
   </si>
   <si>
-    <t>5.6%</t>
-  </si>
-  <si>
-    <t>24.3%</t>
-  </si>
-  <si>
-    <t>47.7%</t>
+    <t>5.7%</t>
+  </si>
+  <si>
+    <t>24.2%</t>
+  </si>
+  <si>
+    <t>47.9%</t>
   </si>
   <si>
     <t>5%</t>
   </si>
   <si>
-    <t>6.1%</t>
-  </si>
-  <si>
-    <t>5.8%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5.3%</t>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>0.1%</t>
+  </si>
+  <si>
+    <t>5.4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -195,13 +192,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.0</v>
+        <v>-9.0</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -215,13 +212,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>725.0</v>
+        <v>707.0</v>
       </c>
       <c r="C3" t="n">
-        <v>572.0</v>
+        <v>569.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-153.0</v>
+        <v>-138.0</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -235,13 +232,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2864.0</v>
+        <v>2918.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2482.0</v>
+        <v>2418.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-382.0</v>
+        <v>-500.0</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -255,13 +252,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>5692.0</v>
+        <v>5733.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4871.0</v>
+        <v>4786.0</v>
       </c>
       <c r="D5" t="n">
-        <v>-821.0</v>
+        <v>-947.0</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
@@ -275,13 +272,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>617.0</v>
+        <v>612.0</v>
       </c>
       <c r="C6" t="n">
-        <v>507.0</v>
+        <v>495.0</v>
       </c>
       <c r="D6" t="n">
-        <v>-110.0</v>
+        <v>-117.0</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -295,13 +292,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>753.0</v>
+        <v>709.0</v>
       </c>
       <c r="C7" t="n">
-        <v>621.0</v>
+        <v>600.0</v>
       </c>
       <c r="D7" t="n">
-        <v>-132.0</v>
+        <v>-109.0</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -315,19 +312,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>847.0</v>
+        <v>830.0</v>
       </c>
       <c r="C8" t="n">
-        <v>595.0</v>
+        <v>566.0</v>
       </c>
       <c r="D8" t="n">
-        <v>-252.0</v>
+        <v>-264.0</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -335,19 +332,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.0</v>
+        <v>-5.0</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -355,19 +352,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>589.0</v>
+        <v>598.0</v>
       </c>
       <c r="C10" t="n">
-        <v>539.0</v>
+        <v>536.0</v>
       </c>
       <c r="D10" t="n">
-        <v>-50.0</v>
+        <v>-62.0</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -375,19 +372,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>12123.0</v>
+        <v>12141.0</v>
       </c>
       <c r="C11" t="n">
-        <v>10211.0</v>
+        <v>9990.0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1912.0</v>
+        <v>-2151.0</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
